--- a/fuentes/contenidos/grado06/guion02/SolicitudGrafica_CS_06_02_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion02/SolicitudGrafica_CS_06_02_CO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="179">
   <si>
     <t>Asignatura:</t>
   </si>
@@ -511,9 +511,6 @@
     <t>CS_06_02_CO</t>
   </si>
   <si>
-    <t>IMG1</t>
-  </si>
-  <si>
     <t>Evolución del hombre</t>
   </si>
   <si>
@@ -529,36 +526,15 @@
     <t>5° Primaria/Ciencias sociales/La prehistoria/El paleolítico</t>
   </si>
   <si>
-    <t>http://www.banrepcultural.org/sites/default/files/lablaa/arqueologia/arqueolo/images/42.jpg</t>
-  </si>
-  <si>
-    <t>Punta de proyectil</t>
-  </si>
-  <si>
     <t>5° Primaria/Ciencias sociales/La prehistoria/El neolítico</t>
   </si>
   <si>
-    <t>IMG6</t>
-  </si>
-  <si>
-    <t>IMG5</t>
-  </si>
-  <si>
     <t>Pintura en roca</t>
   </si>
   <si>
-    <t>http://www.banrepcultural.org/sites/default/files/ninovitrina_0.jpg</t>
-  </si>
-  <si>
     <t>Fotografía</t>
   </si>
   <si>
-    <t>Nino visita museo</t>
-  </si>
-  <si>
-    <t>1 ESO/Ciencias sociales, geografía e historia/Introducción a la historia y la prehistoria/La prehistoria/La edad de los metales</t>
-  </si>
-  <si>
     <t>Primeras herramientas de metal</t>
   </si>
   <si>
@@ -577,24 +553,15 @@
     <t>IMG11</t>
   </si>
   <si>
-    <t>Pinturas en la cueva</t>
-  </si>
-  <si>
     <t>1 ESO/Ciencias sociales, geografía e historia/Introducción a la historia y la prehistoria/El arte en la prehistoria/El arte en el neolítico</t>
   </si>
   <si>
-    <t>IMG12</t>
-  </si>
-  <si>
     <t>Bloques de piedra tosca</t>
   </si>
   <si>
     <t>1 ESO/Ciencias sociales, geografía e historia/Introducción a la historia y la prehistoria/El arte en la prehistoria/El arte en la edad de los metales</t>
   </si>
   <si>
-    <t>IMG13</t>
-  </si>
-  <si>
     <t>Joyas de metal</t>
   </si>
   <si>
@@ -604,16 +571,40 @@
     <t>Horizontal</t>
   </si>
   <si>
-    <t>Fósil</t>
-  </si>
-  <si>
     <t>Cráneo humano</t>
   </si>
   <si>
-    <t>http://www.banrepcultural.org/museo-del-oro/sociedades/quimbaya</t>
-  </si>
-  <si>
-    <t>Orfebrería en oro</t>
+    <t>IMG01</t>
+  </si>
+  <si>
+    <t>IMG05</t>
+  </si>
+  <si>
+    <t>IMG06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shutterstock 87100568 </t>
+  </si>
+  <si>
+    <t>Esta es la única nueva</t>
+  </si>
+  <si>
+    <t>Choza típica del Mesolítico</t>
+  </si>
+  <si>
+    <t>1° ESO/Ciencias sociales, geografía e historia/Introducción a la historia y la prehistoria/La prehistoria/La edad de los metales</t>
+  </si>
+  <si>
+    <t>IMG08</t>
+  </si>
+  <si>
+    <t>IMG09</t>
+  </si>
+  <si>
+    <t>herramienta punta de piedra tallada</t>
+  </si>
+  <si>
+    <t>Escultura humana tipo Botero</t>
   </si>
 </sst>
 </file>
@@ -765,7 +756,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -809,6 +800,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,7 +1243,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1298,9 +1295,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1340,9 +1336,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1364,9 +1357,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1606,11 +1596,29 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="51" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="51">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1636,7 +1644,6 @@
     <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="51" builtinId="8"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -2359,8 +2366,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2388,8 +2395,8 @@
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
     </row>
@@ -2398,16 +2405,16 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="50" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2415,16 +2422,16 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="51">
+      <c r="C3" s="75"/>
+      <c r="D3" s="49">
         <v>6</v>
       </c>
-      <c r="F3" s="91">
+      <c r="F3" s="89">
         <v>42102</v>
       </c>
-      <c r="G3" s="92"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
@@ -2432,19 +2439,19 @@
       <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="86" t="s">
-        <v>176</v>
+      <c r="C4" s="75"/>
+      <c r="D4" s="84" t="s">
+        <v>165</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
     </row>
@@ -2453,20 +2460,20 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="49" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="47" t="s">
         <v>144</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="52" t="str">
+      <c r="F5" s="50" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v/>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="79"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="77"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
     </row>
@@ -2478,20 +2485,20 @@
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="33" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="1"/>
@@ -2507,12 +2514,12 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="93"/>
       <c r="J8" s="17"/>
       <c r="K8" s="11"/>
       <c r="L8" s="2"/>
@@ -2522,60 +2529,60 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="75" t="s">
+      <c r="G9" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="75" t="s">
+      <c r="H9" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="11" customFormat="1" ht="54" x14ac:dyDescent="0.25">
-      <c r="A10" s="85" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="26" t="str">
-        <f t="shared" ref="C10:C19" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+      <c r="A10" s="83" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="25" t="str">
+        <f t="shared" ref="C10:C17" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="F10" s="13" t="str">
-        <f t="shared" ref="F10:F22" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE("n",IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CS_06_02_CO_IMG1_small</v>
+        <f t="shared" ref="F10:F20" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE("n",IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CS_06_02_CO_IMG01_small</v>
       </c>
       <c r="G10" s="13">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!E18,'Definición técnica de imagenes'!F16)),'Definición técnica de imagenes'!E19),"")</f>
@@ -2583,34 +2590,34 @@
       </c>
       <c r="H10" s="13" t="str">
         <f t="shared" ref="H10:H16" si="2">IF(I10&lt;&gt;"",IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF(LEFT($G$5,1)="M",CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),""),"")</f>
-        <v>CS_06_02_CO_IMG1_small</v>
+        <v>CS_06_02_CO_IMG01_small</v>
       </c>
       <c r="I10" s="13">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)&lt;&gt;0,VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),""),""),'Definición técnica de imagenes'!E19),"")</f>
         <v>0</v>
       </c>
-      <c r="J10" s="81" t="s">
-        <v>148</v>
+      <c r="J10" s="79" t="s">
+        <v>147</v>
       </c>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:16" s="11" customFormat="1" ht="54" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
-        <f t="shared" ref="A11:A27" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
+        <f t="shared" ref="A11:A25" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="26" t="str">
+      <c r="B11" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="25" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D11" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="80" t="s">
-        <v>177</v>
+      <c r="D11" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="78" t="s">
+        <v>166</v>
       </c>
       <c r="F11" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2628,8 +2635,8 @@
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)&lt;&gt;0,VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),""),""),'Definición técnica de imagenes'!E20),"")</f>
         <v>0</v>
       </c>
-      <c r="J11" s="81" t="s">
-        <v>179</v>
+      <c r="J11" s="79" t="s">
+        <v>167</v>
       </c>
       <c r="K11" s="18"/>
     </row>
@@ -2638,17 +2645,17 @@
         <f t="shared" si="3"/>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="87" t="s">
+      <c r="B12" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="80" t="s">
-        <v>177</v>
+      <c r="D12" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="78" t="s">
+        <v>166</v>
       </c>
       <c r="F12" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2666,28 +2673,28 @@
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)&lt;&gt;0,VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),""),""),'Definición técnica de imagenes'!E21),"")</f>
         <v>0</v>
       </c>
-      <c r="J12" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="K12" s="20"/>
+      <c r="J12" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:16" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="26" t="str">
+      <c r="B13" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="25" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D13" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="80" t="s">
-        <v>177</v>
+      <c r="D13" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="78" t="s">
+        <v>166</v>
       </c>
       <c r="F13" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2705,69 +2712,71 @@
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)&lt;&gt;0,VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),""),""),'Definición técnica de imagenes'!E22),"")</f>
         <v>0</v>
       </c>
-      <c r="J13" s="83" t="s">
-        <v>178</v>
-      </c>
-      <c r="K13" s="33"/>
-    </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="54" x14ac:dyDescent="0.25">
-      <c r="A14" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="26" t="str">
+      <c r="J13" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A14" s="110" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="112" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D14" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" s="80" t="s">
-        <v>177</v>
-      </c>
-      <c r="F14" s="13" t="str">
+      <c r="D14" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="113" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="114" t="str">
         <f t="shared" si="1"/>
-        <v>CS_06_02_CO_IMG5_small</v>
-      </c>
-      <c r="G14" s="13">
+        <v>CS_06_02_CO_IMG05_small</v>
+      </c>
+      <c r="G14" s="114">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!E22,'Definición técnica de imagenes'!F20)),'Definición técnica de imagenes'!E23),"")</f>
         <v>0</v>
       </c>
-      <c r="H14" s="13" t="str">
+      <c r="H14" s="114" t="str">
         <f t="shared" si="2"/>
-        <v>CS_06_02_CO_IMG5_small</v>
-      </c>
-      <c r="I14" s="13">
+        <v>CS_06_02_CO_IMG05_small</v>
+      </c>
+      <c r="I14" s="114">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)&lt;&gt;0,VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),""),""),'Definición técnica de imagenes'!E23),"")</f>
         <v>0</v>
       </c>
-      <c r="J14" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="K14" s="20"/>
+      <c r="J14" s="115" t="s">
+        <v>173</v>
+      </c>
+      <c r="K14" s="116" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="15" spans="1:16" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="26" t="str">
+      <c r="A15" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="25" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D15" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" s="80" t="s">
-        <v>177</v>
+      <c r="D15" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="78" t="s">
+        <v>166</v>
       </c>
       <c r="F15" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>CS_06_02_CO_IMG6_small</v>
+        <v>CS_06_02_CO_IMG06_small</v>
       </c>
       <c r="G15" s="13">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!E23,'Definición técnica de imagenes'!F21)),'Definición técnica de imagenes'!E24),"")</f>
@@ -2775,34 +2784,34 @@
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>CS_06_02_CO_IMG6_small</v>
+        <v>CS_06_02_CO_IMG06_small</v>
       </c>
       <c r="I15" s="13">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)&lt;&gt;0,VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),""),""),'Definición técnica de imagenes'!E24),"")</f>
         <v>0</v>
       </c>
-      <c r="J15" s="82" t="s">
-        <v>158</v>
-      </c>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="J15" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG07</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="26" t="str">
+      <c r="B16" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="25" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="80" t="s">
-        <v>177</v>
+        <v>154</v>
+      </c>
+      <c r="E16" s="78" t="s">
+        <v>166</v>
       </c>
       <c r="F16" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2820,28 +2829,27 @@
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)&lt;&gt;0,VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),""),""),'Definición técnica de imagenes'!E25),"")</f>
         <v>0</v>
       </c>
-      <c r="J16" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="K16" s="33"/>
-    </row>
-    <row r="17" spans="1:11" s="11" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>IMG08</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="26" t="str">
+      <c r="J16" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" s="31"/>
+    </row>
+    <row r="17" spans="1:11" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="25" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D17" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="80" t="s">
-        <v>177</v>
+      <c r="D17" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="78" t="s">
+        <v>166</v>
       </c>
       <c r="F17" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2859,70 +2867,67 @@
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!A13:G27,6,FALSE)&lt;&gt;0,VLOOKUP($G$5,'Definición técnica de imagenes'!A13:G27,6,FALSE),""),""),'Definición técnica de imagenes'!E26),"")</f>
         <v>0</v>
       </c>
-      <c r="J17" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="1:11" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>IMG09</v>
-      </c>
-      <c r="B18" s="112" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D18" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E18" s="80" t="s">
-        <v>177</v>
+      <c r="J17" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="1:11" s="11" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="78" t="s">
+        <v>166</v>
       </c>
       <c r="F18" s="13" t="str">
         <f t="shared" si="1"/>
         <v>CS_06_02_CO_IMG09_small</v>
       </c>
       <c r="G18" s="13">
-        <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!E26,'Definición técnica de imagenes'!F24)),'Definición técnica de imagenes'!E27),"")</f>
+        <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!E28,'Definición técnica de imagenes'!F26)),'Definición técnica de imagenes'!E29),"")</f>
         <v>0</v>
       </c>
       <c r="H18" s="13" t="str">
-        <f t="shared" ref="H18:H23" si="5">IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" ref="H18:H21" si="5">IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CS_06_02_CO_IMG09_small</v>
       </c>
       <c r="I18" s="13"/>
-      <c r="J18" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="1:11" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D19" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E19" s="80" t="s">
-        <v>177</v>
+      <c r="J18" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" s="11" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="78" t="s">
+        <v>166</v>
       </c>
       <c r="F19" s="13" t="str">
         <f t="shared" si="1"/>
         <v>CS_06_02_CO_IMG10_small</v>
       </c>
       <c r="G19" s="13">
-        <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!E27,'Definición técnica de imagenes'!F25)),'Definición técnica de imagenes'!E28),"")</f>
+        <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!E29,'Definición técnica de imagenes'!F27)),'Definición técnica de imagenes'!E30),"")</f>
         <v>0</v>
       </c>
       <c r="H19" s="13" t="str">
@@ -2930,33 +2935,33 @@
         <v>CS_06_02_CO_IMG10_small</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="80" t="s">
+      <c r="J19" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" s="11" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="78" t="s">
         <v>166</v>
-      </c>
-      <c r="K19" s="19"/>
-    </row>
-    <row r="20" spans="1:11" s="11" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="85" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" s="80" t="s">
-        <v>177</v>
       </c>
       <c r="F20" s="13" t="str">
         <f t="shared" si="1"/>
         <v>CS_06_02_CO_IMG11_small</v>
       </c>
       <c r="G20" s="13">
-        <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!E28,'Definición técnica de imagenes'!F26)),'Definición técnica de imagenes'!E29),"")</f>
+        <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!E30,'Definición técnica de imagenes'!F28)),'Definición técnica de imagenes'!E31),"")</f>
         <v>0</v>
       </c>
       <c r="H20" s="13" t="str">
@@ -2964,77 +2969,50 @@
         <v>CS_06_02_CO_IMG11_small</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="81" t="s">
-        <v>169</v>
+      <c r="J20" s="78" t="s">
+        <v>164</v>
       </c>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:11" s="11" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="85" t="s">
-        <v>171</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" s="80" t="s">
-        <v>177</v>
-      </c>
+    <row r="21" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>CS_06_02_CO_IMG12_small</v>
-      </c>
-      <c r="G21" s="13">
-        <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!E29,'Definición técnica de imagenes'!F27)),'Definición técnica de imagenes'!E30),"")</f>
-        <v>0</v>
-      </c>
+        <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),CONCATENATE($C$7,"_",$A21,IF(#REF!="Cuaderno de Estudio","_small","n")),"")</f>
+        <v/>
+      </c>
+      <c r="G21" s="13"/>
       <c r="H21" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>CS_06_02_CO_IMG12_small</v>
+        <v/>
       </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" s="11" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="85" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" s="80" t="s">
-        <v>177</v>
-      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>CS_06_02_CO_IMG13_small</v>
-      </c>
-      <c r="G22" s="13">
-        <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!E30,'Definición técnica de imagenes'!F28)),'Definición técnica de imagenes'!E31),"")</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>CS_06_02_CO_IMG13_small</v>
-      </c>
+        <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),CONCATENATE($C$7,"_",$A22,IF(#REF!="Cuaderno de Estudio","_small","n")),"")</f>
+        <v/>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="80" t="s">
-        <v>175</v>
-      </c>
+      <c r="J22" s="18"/>
       <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3042,8 +3020,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13" t="str">
@@ -3051,12 +3029,9 @@
         <v/>
       </c>
       <c r="G23" s="13"/>
-      <c r="H23" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H23" s="13"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="J23" s="18"/>
       <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3064,8 +3039,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="str">
@@ -3098,12 +3073,9 @@
       <c r="K25" s="18"/>
     </row>
     <row r="26" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13" t="str">
@@ -3113,16 +3085,13 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="18"/>
+      <c r="J26" s="79"/>
       <c r="K26" s="18"/>
     </row>
     <row r="27" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="str">
@@ -3137,8 +3106,8 @@
     </row>
     <row r="28" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13" t="str">
@@ -3148,13 +3117,13 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="81"/>
+      <c r="J28" s="18"/>
       <c r="K28" s="18"/>
     </row>
     <row r="29" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13" t="str">
@@ -3169,8 +3138,8 @@
     </row>
     <row r="30" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13" t="str">
@@ -3180,8 +3149,8 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
@@ -3196,13 +3165,13 @@
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13" t="str">
@@ -3212,13 +3181,13 @@
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="J32" s="20"/>
       <c r="K32" s="14"/>
     </row>
     <row r="33" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="str">
@@ -3228,13 +3197,13 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="J33" s="21"/>
       <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13" t="str">
@@ -3244,13 +3213,13 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="21"/>
+      <c r="J34" s="13"/>
       <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13" t="str">
@@ -3260,13 +3229,13 @@
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="22"/>
+      <c r="J35" s="13"/>
       <c r="K35" s="14"/>
     </row>
     <row r="36" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13" t="str">
@@ -3281,8 +3250,8 @@
     </row>
     <row r="37" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13" t="str">
@@ -3297,8 +3266,8 @@
     </row>
     <row r="38" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13" t="str">
@@ -3313,8 +3282,8 @@
     </row>
     <row r="39" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13" t="str">
@@ -3329,8 +3298,8 @@
     </row>
     <row r="40" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="str">
@@ -3345,8 +3314,8 @@
     </row>
     <row r="41" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13" t="str">
@@ -3361,8 +3330,8 @@
     </row>
     <row r="42" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13" t="str">
@@ -3377,8 +3346,8 @@
     </row>
     <row r="43" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13" t="str">
@@ -3393,8 +3362,8 @@
     </row>
     <row r="44" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13" t="str">
@@ -3409,8 +3378,8 @@
     </row>
     <row r="45" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13" t="str">
@@ -3425,8 +3394,8 @@
     </row>
     <row r="46" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13" t="str">
@@ -3441,8 +3410,8 @@
     </row>
     <row r="47" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13" t="str">
@@ -3457,8 +3426,8 @@
     </row>
     <row r="48" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13" t="str">
@@ -3473,8 +3442,8 @@
     </row>
     <row r="49" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13" t="str">
@@ -3489,8 +3458,8 @@
     </row>
     <row r="50" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13" t="str">
@@ -3505,8 +3474,8 @@
     </row>
     <row r="51" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13" t="str">
@@ -3521,8 +3490,8 @@
     </row>
     <row r="52" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13" t="str">
@@ -3537,8 +3506,8 @@
     </row>
     <row r="53" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13" t="str">
@@ -3553,8 +3522,8 @@
     </row>
     <row r="54" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13" t="str">
@@ -3569,8 +3538,8 @@
     </row>
     <row r="55" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13" t="str">
@@ -3585,8 +3554,8 @@
     </row>
     <row r="56" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13" t="str">
@@ -3601,8 +3570,8 @@
     </row>
     <row r="57" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13" t="str">
@@ -3617,8 +3586,8 @@
     </row>
     <row r="58" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13" t="str">
@@ -4352,36 +4321,30 @@
       <c r="K103" s="14"/>
     </row>
     <row r="104" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13" t="str">
-        <f>IF(OR(B104&lt;&gt;"",J104&lt;&gt;""),CONCATENATE($C$7,"_",$A104,IF(#REF!="Cuaderno de Estudio","_small","n")),"")</f>
-        <v/>
-      </c>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
-      <c r="K104" s="14"/>
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
     </row>
     <row r="105" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13" t="str">
-        <f>IF(OR(B105&lt;&gt;"",J105&lt;&gt;""),CONCATENATE($C$7,"_",$A105,IF(#REF!="Cuaderno de Estudio","_small","n")),"")</f>
-        <v/>
-      </c>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="14"/>
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16"/>
     </row>
     <row r="106" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
@@ -4458,18 +4421,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
       <formula1>"3,4,5,6,7,8,9,10,11"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E103">
       <formula1>"Vertical,Horizontal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D103">
       <formula1>"Ilustración,Fotografía"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4489,529 +4449,529 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="34" customWidth="1"/>
-    <col min="2" max="2" width="11" style="34"/>
-    <col min="3" max="3" width="13.5" style="34" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="34" customWidth="1"/>
-    <col min="5" max="7" width="11" style="34"/>
-    <col min="8" max="11" width="11" style="34" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="34"/>
+    <col min="1" max="1" width="72.25" style="32" customWidth="1"/>
+    <col min="2" max="2" width="11" style="32"/>
+    <col min="3" max="3" width="13.5" style="32" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="32" customWidth="1"/>
+    <col min="5" max="7" width="11" style="32"/>
+    <col min="8" max="11" width="11" style="32" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="99" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="44"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="105" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="44"/>
-      <c r="H3" s="34" t="s">
+      <c r="D3" s="104"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="42"/>
+      <c r="H3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="32" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="H4" s="34" t="s">
+      <c r="F4" s="42"/>
+      <c r="H4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="32">
         <v>1</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="108" t="str">
+      <c r="D5" s="106" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>MA_07_01_CO</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="44"/>
-      <c r="H5" s="34" t="s">
+      <c r="E5" s="107"/>
+      <c r="F5" s="42"/>
+      <c r="H5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="32">
         <v>2</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
-      <c r="H6" s="34" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="H6" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="32">
         <v>3</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
-      <c r="H7" s="34" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="H7" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="32">
         <v>4</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="32">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="I8" s="34" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="I8" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="32">
         <v>5</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="I9" s="34" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="I9" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="32">
         <v>6</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="I10" s="34" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="I10" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="32">
         <v>7</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="32">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="32">
         <v>8</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="32">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="32">
         <v>9</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="32">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="98"/>
-      <c r="I13" s="34" t="s">
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
+      <c r="I13" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="32">
         <v>10</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="32">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="44"/>
-      <c r="I14" s="34" t="s">
+      <c r="A14" s="43"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="I14" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="32">
         <v>11</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="32">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="99" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="101"/>
-      <c r="J15" s="34">
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="J15" s="32">
         <v>12</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="32">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="38" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="32">
         <v>13</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="32">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="40" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="102" t="str">
+      <c r="D17" s="100" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>MA_07_01_REC10</v>
       </c>
-      <c r="E17" s="103"/>
-      <c r="F17" s="104"/>
-      <c r="J17" s="34">
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
+      <c r="J17" s="32">
         <v>14</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="32">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
-      <c r="J18" s="34">
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="J18" s="32">
         <v>15</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="32">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
-      <c r="H19" s="34">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="H19" s="32">
         <v>3</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="32">
         <v>16</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="32">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="48"/>
-      <c r="H20" s="34">
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
+      <c r="H20" s="32">
         <v>1</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="32">
         <v>5</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="32">
         <v>1</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="32">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H21" s="34" t="str">
+      <c r="H21" s="32" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>MA</v>
       </c>
-      <c r="I21" s="34" t="str">
+      <c r="I21" s="32" t="str">
         <f>CONCATENATE(IF((I20+2)&lt;10,"0",""),I20+2)</f>
         <v>07</v>
       </c>
-      <c r="J21" s="34" t="str">
+      <c r="J21" s="32" t="str">
         <f>CONCATENATE(IF(J20&lt;10,"0",""),J20)</f>
         <v>01</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="32">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K22" s="34">
+      <c r="K22" s="32">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K23" s="34">
+      <c r="K23" s="32">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K24" s="34">
+      <c r="K24" s="32">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="34">
+      <c r="K25" s="32">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="34">
+      <c r="K26" s="32">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="34">
+      <c r="K27" s="32">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="34">
+      <c r="K28" s="32">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K29" s="34">
+      <c r="K29" s="32">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="34">
+      <c r="K30" s="32">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="34">
+      <c r="K31" s="32">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K32" s="34">
+      <c r="K32" s="32">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="34">
+      <c r="K33" s="32">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="34">
+      <c r="K34" s="32">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="34">
+      <c r="K35" s="32">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="34">
+      <c r="K36" s="32">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="34">
+      <c r="K37" s="32">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="34">
+      <c r="K38" s="32">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="34">
+      <c r="K39" s="32">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="34">
+      <c r="K40" s="32">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41" s="34">
+      <c r="K41" s="32">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42" s="34">
+      <c r="K42" s="32">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43" s="34">
+      <c r="K43" s="32">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44" s="34">
+      <c r="K44" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45" s="34" t="str">
+      <c r="K45" s="32" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
       </c>
@@ -5204,559 +5164,559 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="34" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="34" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="34" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="34"/>
-    <col min="5" max="5" width="11.75" style="34" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="34" customWidth="1"/>
-    <col min="7" max="7" width="11" style="34" customWidth="1"/>
-    <col min="8" max="9" width="22.25" style="34" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="34" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="34" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="34"/>
+    <col min="1" max="1" width="21" style="32" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="32" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="32"/>
+    <col min="5" max="5" width="11.75" style="32" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="32" customWidth="1"/>
+    <col min="7" max="7" width="11" style="32" customWidth="1"/>
+    <col min="8" max="9" width="22.25" style="32" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="32" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="32" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="110" t="s">
+      <c r="F1" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="G1" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="111" t="s">
+      <c r="H1" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="56" t="s">
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="54" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+    <row r="3" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57" t="s">
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="59"/>
-    </row>
-    <row r="5" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="J4" s="57"/>
+    </row>
+    <row r="5" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="59" t="s">
+      <c r="G5" s="59"/>
+      <c r="H5" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="61"/>
-    </row>
-    <row r="6" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="J5" s="59"/>
+    </row>
+    <row r="6" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="57" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="58" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+    <row r="7" spans="1:11" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59" t="s">
+      <c r="G7" s="57"/>
+      <c r="H7" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="59"/>
-    </row>
-    <row r="8" spans="1:11" s="58" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="J7" s="57"/>
+    </row>
+    <row r="8" spans="1:11" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59" t="s">
+      <c r="G8" s="57"/>
+      <c r="H8" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="59"/>
-    </row>
-    <row r="9" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="J8" s="57"/>
+    </row>
+    <row r="9" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59" t="s">
+      <c r="G9" s="57"/>
+      <c r="H9" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="59"/>
-    </row>
-    <row r="10" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="J9" s="57"/>
+    </row>
+    <row r="10" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59" t="s">
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-    </row>
-    <row r="11" spans="1:11" s="58" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+    </row>
+    <row r="11" spans="1:11" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59" t="s">
+      <c r="G11" s="57"/>
+      <c r="H11" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="59"/>
-    </row>
-    <row r="12" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="J11" s="57"/>
+    </row>
+    <row r="12" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59" t="s">
+      <c r="G12" s="57"/>
+      <c r="H12" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="59"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64" t="s">
+      <c r="E13" s="61"/>
+      <c r="F13" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="62"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59" t="s">
+      <c r="G13" s="60"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="62"/>
-      <c r="K13" s="34" t="s">
+      <c r="J13" s="60"/>
+      <c r="K13" s="32" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="64" t="s">
+      <c r="E14" s="61"/>
+      <c r="F14" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59" t="s">
+      <c r="G14" s="60"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="62"/>
+      <c r="J14" s="60"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="59" t="s">
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="34" t="s">
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="32" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="60" t="s">
+      <c r="B16" s="62"/>
+      <c r="C16" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="F16" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="64" t="s">
+      <c r="G16" s="61"/>
+      <c r="H16" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="I16" s="64" t="s">
+      <c r="I16" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="J16" s="63"/>
-      <c r="K16" s="65" t="s">
+      <c r="J16" s="61"/>
+      <c r="K16" s="63" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59" t="s">
+      <c r="B17" s="57"/>
+      <c r="C17" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="66" t="s">
+      <c r="G17" s="57"/>
+      <c r="H17" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="66" t="s">
+      <c r="I17" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="J17" s="59"/>
-      <c r="K17" s="67" t="s">
+      <c r="J17" s="57"/>
+      <c r="K17" s="65" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="66" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
     </row>
     <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="74" t="s">
+      <c r="C25" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
     </row>
     <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="8">
